--- a/Code/Results/Cases/Case_5_216/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_216/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.020525125049179</v>
+        <v>1.052042066530207</v>
       </c>
       <c r="D2">
-        <v>1.035461410544495</v>
+        <v>1.055268628335639</v>
       </c>
       <c r="E2">
-        <v>1.023868843720976</v>
+        <v>1.048900163478011</v>
       </c>
       <c r="F2">
-        <v>1.03703512219111</v>
+        <v>1.063662236074625</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050492540949944</v>
+        <v>1.045481499151992</v>
       </c>
       <c r="J2">
-        <v>1.042108797094153</v>
+        <v>1.057066755259953</v>
       </c>
       <c r="K2">
-        <v>1.046447866064311</v>
+        <v>1.058009552368776</v>
       </c>
       <c r="L2">
-        <v>1.035005368907318</v>
+        <v>1.051658720252838</v>
       </c>
       <c r="M2">
-        <v>1.048001528555688</v>
+        <v>1.066380269394518</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.02613607684818</v>
+        <v>1.053202855792058</v>
       </c>
       <c r="D3">
-        <v>1.039772692272046</v>
+        <v>1.056180841177848</v>
       </c>
       <c r="E3">
-        <v>1.028470387238456</v>
+        <v>1.049895937688396</v>
       </c>
       <c r="F3">
-        <v>1.042133808527698</v>
+        <v>1.06477227772745</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052404173061102</v>
+        <v>1.045816074696081</v>
       </c>
       <c r="J3">
-        <v>1.045938745052192</v>
+        <v>1.057876841161164</v>
       </c>
       <c r="K3">
-        <v>1.049920760795437</v>
+        <v>1.058734920830761</v>
       </c>
       <c r="L3">
-        <v>1.038751496327035</v>
+        <v>1.052466157880417</v>
       </c>
       <c r="M3">
-        <v>1.052254534361167</v>
+        <v>1.06730462547779</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.029682109594164</v>
+        <v>1.053953946110288</v>
       </c>
       <c r="D4">
-        <v>1.042500591967043</v>
+        <v>1.056771069751885</v>
       </c>
       <c r="E4">
-        <v>1.031384049196565</v>
+        <v>1.050540534742435</v>
       </c>
       <c r="F4">
-        <v>1.045362394970951</v>
+        <v>1.065490930156557</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053603025132602</v>
+        <v>1.046031356457702</v>
       </c>
       <c r="J4">
-        <v>1.048355857287701</v>
+        <v>1.058400449160515</v>
       </c>
       <c r="K4">
-        <v>1.052111767190687</v>
+        <v>1.059203617025322</v>
       </c>
       <c r="L4">
-        <v>1.04111789566938</v>
+        <v>1.052988275643255</v>
       </c>
       <c r="M4">
-        <v>1.054942508134733</v>
+        <v>1.067902533878061</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.031153461676364</v>
+        <v>1.054269701245172</v>
       </c>
       <c r="D5">
-        <v>1.043633188876085</v>
+        <v>1.057019193805946</v>
       </c>
       <c r="E5">
-        <v>1.032594288870569</v>
+        <v>1.050811586922102</v>
       </c>
       <c r="F5">
-        <v>1.046703485903192</v>
+        <v>1.065793143309403</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054098197427134</v>
+        <v>1.046121571142184</v>
       </c>
       <c r="J5">
-        <v>1.049357938315827</v>
+        <v>1.058620437496409</v>
       </c>
       <c r="K5">
-        <v>1.053019914953456</v>
+        <v>1.059400497801696</v>
       </c>
       <c r="L5">
-        <v>1.042099473090976</v>
+        <v>1.053207690850608</v>
       </c>
       <c r="M5">
-        <v>1.056057807777615</v>
+        <v>1.068153844224087</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.031399394576318</v>
+        <v>1.054322717763012</v>
       </c>
       <c r="D6">
-        <v>1.043822539709823</v>
+        <v>1.057060854458923</v>
       </c>
       <c r="E6">
-        <v>1.032796650915893</v>
+        <v>1.050857101511107</v>
       </c>
       <c r="F6">
-        <v>1.046927730078651</v>
+        <v>1.06584389161488</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054180829816738</v>
+        <v>1.046136701596776</v>
       </c>
       <c r="J6">
-        <v>1.04952538252963</v>
+        <v>1.058657366515479</v>
       </c>
       <c r="K6">
-        <v>1.053171651484427</v>
+        <v>1.059433545628236</v>
       </c>
       <c r="L6">
-        <v>1.042263521743735</v>
+        <v>1.05324452676515</v>
       </c>
       <c r="M6">
-        <v>1.056244224787837</v>
+        <v>1.068196037395194</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.029701845001746</v>
+        <v>1.053958165257224</v>
       </c>
       <c r="D7">
-        <v>1.042515780883192</v>
+        <v>1.056774385229058</v>
       </c>
       <c r="E7">
-        <v>1.031400277302038</v>
+        <v>1.050544156304801</v>
       </c>
       <c r="F7">
-        <v>1.045380377483756</v>
+        <v>1.065494967982785</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053609675945934</v>
+        <v>1.046032563049137</v>
       </c>
       <c r="J7">
-        <v>1.048369301724416</v>
+        <v>1.058403389191132</v>
       </c>
       <c r="K7">
-        <v>1.052123952154598</v>
+        <v>1.059206248380725</v>
       </c>
       <c r="L7">
-        <v>1.041131062964527</v>
+        <v>1.052991207806143</v>
       </c>
       <c r="M7">
-        <v>1.054957467913998</v>
+        <v>1.067905892096575</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.022439430080671</v>
+        <v>1.052434365052745</v>
       </c>
       <c r="D8">
-        <v>1.036931582211521</v>
+        <v>1.055576922084553</v>
       </c>
       <c r="E8">
-        <v>1.025437561792373</v>
+        <v>1.04923663540358</v>
       </c>
       <c r="F8">
-        <v>1.038773298579009</v>
+        <v>1.064037301147379</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051146659480882</v>
+        <v>1.045594821353603</v>
       </c>
       <c r="J8">
-        <v>1.043416148869256</v>
+        <v>1.05734064621425</v>
       </c>
       <c r="K8">
-        <v>1.047633492245128</v>
+        <v>1.058254832036047</v>
       </c>
       <c r="L8">
-        <v>1.036283646072756</v>
+        <v>1.051931669894107</v>
       </c>
       <c r="M8">
-        <v>1.049452476312705</v>
+        <v>1.066692703930328</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008952440513998</v>
+        <v>1.049749049066064</v>
       </c>
       <c r="D9">
-        <v>1.026590356590492</v>
+        <v>1.053466571125703</v>
       </c>
       <c r="E9">
-        <v>1.01441163016319</v>
+        <v>1.046934631300531</v>
       </c>
       <c r="F9">
-        <v>1.026556508567317</v>
+        <v>1.061471607575361</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046500391489324</v>
+        <v>1.044814183154003</v>
       </c>
       <c r="J9">
-        <v>1.034192978102764</v>
+        <v>1.055463559655932</v>
       </c>
       <c r="K9">
-        <v>1.039266267408064</v>
+        <v>1.056573204029831</v>
       </c>
       <c r="L9">
-        <v>1.027275137251782</v>
+        <v>1.050061946698135</v>
       </c>
       <c r="M9">
-        <v>1.039232932905261</v>
+        <v>1.0645532727909</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9994344202129977</v>
+        <v>1.047958644433357</v>
       </c>
       <c r="D10">
-        <v>1.019317038644252</v>
+        <v>1.052059478447176</v>
       </c>
       <c r="E10">
-        <v>1.006666962866765</v>
+        <v>1.045401297752923</v>
       </c>
       <c r="F10">
-        <v>1.017975187215042</v>
+        <v>1.059763067540757</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043175404227768</v>
+        <v>1.044287506706357</v>
       </c>
       <c r="J10">
-        <v>1.027670495799527</v>
+        <v>1.054209183296155</v>
       </c>
       <c r="K10">
-        <v>1.033346062430113</v>
+        <v>1.055448662871111</v>
       </c>
       <c r="L10">
-        <v>1.020916877626544</v>
+        <v>1.048813639485408</v>
       </c>
       <c r="M10">
-        <v>1.032027305315605</v>
+        <v>1.063125857977395</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9951724195769727</v>
+        <v>1.047183317225147</v>
       </c>
       <c r="D11">
-        <v>1.016067224427722</v>
+        <v>1.051450142685977</v>
       </c>
       <c r="E11">
-        <v>1.003208781279348</v>
+        <v>1.044737659174127</v>
       </c>
       <c r="F11">
-        <v>1.014143223336623</v>
+        <v>1.059023699520276</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041676320507738</v>
+        <v>1.0440579645218</v>
       </c>
       <c r="J11">
-        <v>1.024747419801493</v>
+        <v>1.053665309286691</v>
       </c>
       <c r="K11">
-        <v>1.030692366818472</v>
+        <v>1.054960899367457</v>
       </c>
       <c r="L11">
-        <v>1.018070437329792</v>
+        <v>1.048272670169405</v>
       </c>
       <c r="M11">
-        <v>1.028803258670827</v>
+        <v>1.062507497647956</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9935667176662746</v>
+        <v>1.046895314133785</v>
       </c>
       <c r="D12">
-        <v>1.014844030627468</v>
+        <v>1.051223799529</v>
       </c>
       <c r="E12">
-        <v>1.001907479412769</v>
+        <v>1.044491199536418</v>
       </c>
       <c r="F12">
-        <v>1.012701225476135</v>
+        <v>1.058749130852438</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041110073430386</v>
+        <v>1.043972478499233</v>
       </c>
       <c r="J12">
-        <v>1.02364586332742</v>
+        <v>1.05346318126612</v>
       </c>
       <c r="K12">
-        <v>1.029692262965774</v>
+        <v>1.054779597089526</v>
       </c>
       <c r="L12">
-        <v>1.016998226143825</v>
+        <v>1.0480716627855</v>
       </c>
       <c r="M12">
-        <v>1.027589069506422</v>
+        <v>1.062277768311133</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.99391219428508</v>
+        <v>1.046957092343661</v>
       </c>
       <c r="D13">
-        <v>1.015107153664161</v>
+        <v>1.051272351305911</v>
       </c>
       <c r="E13">
-        <v>1.00218739026416</v>
+        <v>1.044544063925031</v>
       </c>
       <c r="F13">
-        <v>1.01301140229194</v>
+        <v>1.058808023809906</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041231970255759</v>
+        <v>1.043990825675208</v>
       </c>
       <c r="J13">
-        <v>1.023882881954224</v>
+        <v>1.053506543356445</v>
       </c>
       <c r="K13">
-        <v>1.029907454891041</v>
+        <v>1.054818492717485</v>
       </c>
       <c r="L13">
-        <v>1.017228909471939</v>
+        <v>1.048114782606151</v>
       </c>
       <c r="M13">
-        <v>1.027850287248586</v>
+        <v>1.06232704798022</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9950401619067164</v>
+        <v>1.047159511054151</v>
       </c>
       <c r="D14">
-        <v>1.015966448609451</v>
+        <v>1.051431433270364</v>
       </c>
       <c r="E14">
-        <v>1.003101563956528</v>
+        <v>1.044717285823031</v>
       </c>
       <c r="F14">
-        <v>1.01402441469398</v>
+        <v>1.05900100225588</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041629709605113</v>
+        <v>1.044050902788451</v>
       </c>
       <c r="J14">
-        <v>1.024656692840066</v>
+        <v>1.053648603549077</v>
       </c>
       <c r="K14">
-        <v>1.030609996926121</v>
+        <v>1.054945915421626</v>
       </c>
       <c r="L14">
-        <v>1.017982117819014</v>
+        <v>1.048256056212459</v>
       </c>
       <c r="M14">
-        <v>1.028703238948239</v>
+        <v>1.062488509025822</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9957320981611307</v>
+        <v>1.047284226261455</v>
       </c>
       <c r="D15">
-        <v>1.016493728605052</v>
+        <v>1.05152944775067</v>
       </c>
       <c r="E15">
-        <v>1.003662560134396</v>
+        <v>1.044824019535209</v>
       </c>
       <c r="F15">
-        <v>1.014646058622548</v>
+        <v>1.059119911307669</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041873505755468</v>
+        <v>1.044087888611214</v>
       </c>
       <c r="J15">
-        <v>1.025131340230752</v>
+        <v>1.053736117057877</v>
       </c>
       <c r="K15">
-        <v>1.031040920995547</v>
+        <v>1.05502440814964</v>
       </c>
       <c r="L15">
-        <v>1.018444189381601</v>
+        <v>1.048343090609588</v>
       </c>
       <c r="M15">
-        <v>1.029226534494044</v>
+        <v>1.062587984816467</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9997141891356696</v>
+        <v>1.048010098739865</v>
       </c>
       <c r="D16">
-        <v>1.019530520558155</v>
+        <v>1.052099916853852</v>
       </c>
       <c r="E16">
-        <v>1.006894177673116</v>
+        <v>1.04544534763908</v>
       </c>
       <c r="F16">
-        <v>1.018226955638728</v>
+        <v>1.059812146191882</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043273601087488</v>
+        <v>1.044302709292409</v>
       </c>
       <c r="J16">
-        <v>1.027862329749702</v>
+        <v>1.054245263176582</v>
       </c>
       <c r="K16">
-        <v>1.033520207985597</v>
+        <v>1.055481016600855</v>
       </c>
       <c r="L16">
-        <v>1.021103746034992</v>
+        <v>1.048849532432127</v>
       </c>
       <c r="M16">
-        <v>1.032238999629994</v>
+        <v>1.063166890553527</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002173396382587</v>
+        <v>1.048465399518386</v>
       </c>
       <c r="D17">
-        <v>1.021407868297057</v>
+        <v>1.052457741944658</v>
       </c>
       <c r="E17">
-        <v>1.008892543955177</v>
+        <v>1.045835171611753</v>
       </c>
       <c r="F17">
-        <v>1.020441248433045</v>
+        <v>1.060246484421029</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044135613321536</v>
+        <v>1.044437062083937</v>
       </c>
       <c r="J17">
-        <v>1.029548309620671</v>
+        <v>1.05456444361427</v>
       </c>
       <c r="K17">
-        <v>1.035050670593482</v>
+        <v>1.055767212492498</v>
       </c>
       <c r="L17">
-        <v>1.022746430705922</v>
+        <v>1.049167090712891</v>
       </c>
       <c r="M17">
-        <v>1.034100116173654</v>
+        <v>1.06352994731451</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.003594347633502</v>
+        <v>1.04873096208793</v>
       </c>
       <c r="D18">
-        <v>1.022493275067431</v>
+        <v>1.05266644995369</v>
       </c>
       <c r="E18">
-        <v>1.01004813182845</v>
+        <v>1.046062578800714</v>
       </c>
       <c r="F18">
-        <v>1.021721681690948</v>
+        <v>1.060499869169617</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044632721187146</v>
+        <v>1.044515284262995</v>
       </c>
       <c r="J18">
-        <v>1.030522249202938</v>
+        <v>1.054750546667457</v>
       </c>
       <c r="K18">
-        <v>1.035934721047861</v>
+        <v>1.055934065689892</v>
       </c>
       <c r="L18">
-        <v>1.023695646568701</v>
+        <v>1.049352274279381</v>
       </c>
       <c r="M18">
-        <v>1.035175716236981</v>
+        <v>1.063741685181041</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.004076614464296</v>
+        <v>1.048821510975428</v>
       </c>
       <c r="D19">
-        <v>1.02286176770229</v>
+        <v>1.052737613102604</v>
       </c>
       <c r="E19">
-        <v>1.010440487389591</v>
+        <v>1.046140123788879</v>
       </c>
       <c r="F19">
-        <v>1.022156423276989</v>
+        <v>1.060586274070177</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044801271746706</v>
+        <v>1.044541931668638</v>
       </c>
       <c r="J19">
-        <v>1.030852759756131</v>
+        <v>1.054813991233132</v>
       </c>
       <c r="K19">
-        <v>1.036234718115269</v>
+        <v>1.055990944761046</v>
       </c>
       <c r="L19">
-        <v>1.024017815392394</v>
+        <v>1.049415409846939</v>
       </c>
       <c r="M19">
-        <v>1.035540808466858</v>
+        <v>1.063813877762383</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001910949477429</v>
+        <v>1.04841655075445</v>
       </c>
       <c r="D20">
-        <v>1.021207448348565</v>
+        <v>1.052419351251152</v>
       </c>
       <c r="E20">
-        <v>1.008679182439657</v>
+        <v>1.045793344145191</v>
       </c>
       <c r="F20">
-        <v>1.020204834806531</v>
+        <v>1.060199879637562</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044043719546205</v>
+        <v>1.044422662149165</v>
       </c>
       <c r="J20">
-        <v>1.029368405454762</v>
+        <v>1.054530205767277</v>
       </c>
       <c r="K20">
-        <v>1.034887366282429</v>
+        <v>1.055736514662844</v>
       </c>
       <c r="L20">
-        <v>1.022571116582259</v>
+        <v>1.049133024146375</v>
       </c>
       <c r="M20">
-        <v>1.033901473013326</v>
+        <v>1.063490997557358</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.994708640098825</v>
+        <v>1.0470999041336</v>
       </c>
       <c r="D21">
-        <v>1.015713859535604</v>
+        <v>1.051384587840983</v>
       </c>
       <c r="E21">
-        <v>1.002832834682044</v>
+        <v>1.044666275045923</v>
       </c>
       <c r="F21">
-        <v>1.013726632219844</v>
+        <v>1.058944173110197</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041512849617036</v>
+        <v>1.044033217757394</v>
       </c>
       <c r="J21">
-        <v>1.024429268941125</v>
+        <v>1.053606773377671</v>
       </c>
       <c r="K21">
-        <v>1.030403520612331</v>
+        <v>1.054908396071458</v>
       </c>
       <c r="L21">
-        <v>1.017760736160644</v>
+        <v>1.048214456518829</v>
       </c>
       <c r="M21">
-        <v>1.028452533736713</v>
+        <v>1.062440963958439</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9900486438306086</v>
+        <v>1.046272005716383</v>
       </c>
       <c r="D22">
-        <v>1.012166306558011</v>
+        <v>1.050733940333858</v>
       </c>
       <c r="E22">
-        <v>0.999059334356563</v>
+        <v>1.043957903672615</v>
       </c>
       <c r="F22">
-        <v>1.009545045951921</v>
+        <v>1.058155039381531</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03986680258092</v>
+        <v>1.043787063419849</v>
       </c>
       <c r="J22">
-        <v>1.02123191206587</v>
+        <v>1.053025543806107</v>
       </c>
       <c r="K22">
-        <v>1.027500538973924</v>
+        <v>1.054387000441574</v>
       </c>
       <c r="L22">
-        <v>1.014649449077563</v>
+        <v>1.04763652696841</v>
       </c>
       <c r="M22">
-        <v>1.024929755833961</v>
+        <v>1.061780518328757</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9925320009326741</v>
+        <v>1.046710897508291</v>
       </c>
       <c r="D23">
-        <v>1.014056146383905</v>
+        <v>1.051078865829261</v>
       </c>
       <c r="E23">
-        <v>1.001069371851052</v>
+        <v>1.044333400114325</v>
       </c>
       <c r="F23">
-        <v>1.011772488344323</v>
+        <v>1.058573338440847</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040744777233482</v>
+        <v>1.043917677363586</v>
       </c>
       <c r="J23">
-        <v>1.022935945736621</v>
+        <v>1.05333372464584</v>
       </c>
       <c r="K23">
-        <v>1.029047712805869</v>
+        <v>1.0546634709922</v>
       </c>
       <c r="L23">
-        <v>1.016307352926431</v>
+        <v>1.047942935483396</v>
       </c>
       <c r="M23">
-        <v>1.026806786966588</v>
+        <v>1.062130656767331</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002029579431906</v>
+        <v>1.048438623428382</v>
       </c>
       <c r="D24">
-        <v>1.021298039147941</v>
+        <v>1.052436698369245</v>
       </c>
       <c r="E24">
-        <v>1.008775622228632</v>
+        <v>1.045812244085622</v>
       </c>
       <c r="F24">
-        <v>1.020311694244853</v>
+        <v>1.060220938201198</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044085259932065</v>
+        <v>1.044429169303208</v>
       </c>
       <c r="J24">
-        <v>1.0294497255797</v>
+        <v>1.054545676591052</v>
       </c>
       <c r="K24">
-        <v>1.034961183116483</v>
+        <v>1.055750385937734</v>
       </c>
       <c r="L24">
-        <v>1.022650361031619</v>
+        <v>1.049148417493436</v>
       </c>
       <c r="M24">
-        <v>1.033991262004598</v>
+        <v>1.063508597359207</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.012527053172485</v>
+        <v>1.050443296726024</v>
       </c>
       <c r="D25">
-        <v>1.029327344595764</v>
+        <v>1.054012180401447</v>
       </c>
       <c r="E25">
-        <v>1.017328021018108</v>
+        <v>1.047529517705381</v>
       </c>
       <c r="F25">
-        <v>1.029787870063535</v>
+        <v>1.062134559941986</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047739963858435</v>
+        <v>1.045017097837979</v>
       </c>
       <c r="J25">
-        <v>1.036640063526199</v>
+        <v>1.055949355611567</v>
       </c>
       <c r="K25">
-        <v>1.041486832185587</v>
+        <v>1.057008552853122</v>
       </c>
       <c r="L25">
-        <v>1.029663167820256</v>
+        <v>1.050545635040738</v>
       </c>
       <c r="M25">
-        <v>1.041940719321802</v>
+        <v>1.065106563847096</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_216/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_216/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.052042066530207</v>
+        <v>1.020525125049178</v>
       </c>
       <c r="D2">
-        <v>1.055268628335639</v>
+        <v>1.035461410544494</v>
       </c>
       <c r="E2">
-        <v>1.048900163478011</v>
+        <v>1.023868843720976</v>
       </c>
       <c r="F2">
-        <v>1.063662236074625</v>
+        <v>1.03703512219111</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045481499151992</v>
+        <v>1.050492540949944</v>
       </c>
       <c r="J2">
-        <v>1.057066755259953</v>
+        <v>1.042108797094153</v>
       </c>
       <c r="K2">
-        <v>1.058009552368776</v>
+        <v>1.046447866064311</v>
       </c>
       <c r="L2">
-        <v>1.051658720252838</v>
+        <v>1.035005368907317</v>
       </c>
       <c r="M2">
-        <v>1.066380269394518</v>
+        <v>1.048001528555688</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.053202855792058</v>
+        <v>1.026136076848179</v>
       </c>
       <c r="D3">
-        <v>1.056180841177848</v>
+        <v>1.039772692272046</v>
       </c>
       <c r="E3">
-        <v>1.049895937688396</v>
+        <v>1.028470387238455</v>
       </c>
       <c r="F3">
-        <v>1.06477227772745</v>
+        <v>1.042133808527697</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045816074696081</v>
+        <v>1.052404173061102</v>
       </c>
       <c r="J3">
-        <v>1.057876841161164</v>
+        <v>1.045938745052192</v>
       </c>
       <c r="K3">
-        <v>1.058734920830761</v>
+        <v>1.049920760795437</v>
       </c>
       <c r="L3">
-        <v>1.052466157880417</v>
+        <v>1.038751496327035</v>
       </c>
       <c r="M3">
-        <v>1.06730462547779</v>
+        <v>1.052254534361166</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053953946110288</v>
+        <v>1.029682109594163</v>
       </c>
       <c r="D4">
-        <v>1.056771069751885</v>
+        <v>1.042500591967042</v>
       </c>
       <c r="E4">
-        <v>1.050540534742435</v>
+        <v>1.031384049196565</v>
       </c>
       <c r="F4">
-        <v>1.065490930156557</v>
+        <v>1.045362394970949</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046031356457702</v>
+        <v>1.053603025132602</v>
       </c>
       <c r="J4">
-        <v>1.058400449160515</v>
+        <v>1.0483558572877</v>
       </c>
       <c r="K4">
-        <v>1.059203617025322</v>
+        <v>1.052111767190686</v>
       </c>
       <c r="L4">
-        <v>1.052988275643255</v>
+        <v>1.04111789566938</v>
       </c>
       <c r="M4">
-        <v>1.067902533878061</v>
+        <v>1.054942508134732</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.054269701245172</v>
+        <v>1.031153461676364</v>
       </c>
       <c r="D5">
-        <v>1.057019193805946</v>
+        <v>1.043633188876085</v>
       </c>
       <c r="E5">
-        <v>1.050811586922102</v>
+        <v>1.032594288870569</v>
       </c>
       <c r="F5">
-        <v>1.065793143309403</v>
+        <v>1.046703485903192</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046121571142184</v>
+        <v>1.054098197427134</v>
       </c>
       <c r="J5">
-        <v>1.058620437496409</v>
+        <v>1.049357938315827</v>
       </c>
       <c r="K5">
-        <v>1.059400497801696</v>
+        <v>1.053019914953456</v>
       </c>
       <c r="L5">
-        <v>1.053207690850608</v>
+        <v>1.042099473090976</v>
       </c>
       <c r="M5">
-        <v>1.068153844224087</v>
+        <v>1.056057807777615</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054322717763012</v>
+        <v>1.031399394576319</v>
       </c>
       <c r="D6">
-        <v>1.057060854458923</v>
+        <v>1.043822539709824</v>
       </c>
       <c r="E6">
-        <v>1.050857101511107</v>
+        <v>1.032796650915893</v>
       </c>
       <c r="F6">
-        <v>1.06584389161488</v>
+        <v>1.046927730078652</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046136701596776</v>
+        <v>1.054180829816738</v>
       </c>
       <c r="J6">
-        <v>1.058657366515479</v>
+        <v>1.049525382529631</v>
       </c>
       <c r="K6">
-        <v>1.059433545628236</v>
+        <v>1.053171651484428</v>
       </c>
       <c r="L6">
-        <v>1.05324452676515</v>
+        <v>1.042263521743735</v>
       </c>
       <c r="M6">
-        <v>1.068196037395194</v>
+        <v>1.056244224787838</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053958165257224</v>
+        <v>1.029701845001747</v>
       </c>
       <c r="D7">
-        <v>1.056774385229058</v>
+        <v>1.042515780883192</v>
       </c>
       <c r="E7">
-        <v>1.050544156304801</v>
+        <v>1.031400277302038</v>
       </c>
       <c r="F7">
-        <v>1.065494967982785</v>
+        <v>1.045380377483756</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046032563049137</v>
+        <v>1.053609675945934</v>
       </c>
       <c r="J7">
-        <v>1.058403389191132</v>
+        <v>1.048369301724417</v>
       </c>
       <c r="K7">
-        <v>1.059206248380725</v>
+        <v>1.052123952154598</v>
       </c>
       <c r="L7">
-        <v>1.052991207806143</v>
+        <v>1.041131062964527</v>
       </c>
       <c r="M7">
-        <v>1.067905892096575</v>
+        <v>1.054957467913998</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.052434365052745</v>
+        <v>1.022439430080671</v>
       </c>
       <c r="D8">
-        <v>1.055576922084553</v>
+        <v>1.036931582211522</v>
       </c>
       <c r="E8">
-        <v>1.04923663540358</v>
+        <v>1.025437561792373</v>
       </c>
       <c r="F8">
-        <v>1.064037301147379</v>
+        <v>1.03877329857901</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045594821353603</v>
+        <v>1.051146659480882</v>
       </c>
       <c r="J8">
-        <v>1.05734064621425</v>
+        <v>1.043416148869257</v>
       </c>
       <c r="K8">
-        <v>1.058254832036047</v>
+        <v>1.047633492245129</v>
       </c>
       <c r="L8">
-        <v>1.051931669894107</v>
+        <v>1.036283646072756</v>
       </c>
       <c r="M8">
-        <v>1.066692703930328</v>
+        <v>1.049452476312706</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.049749049066064</v>
+        <v>1.008952440513999</v>
       </c>
       <c r="D9">
-        <v>1.053466571125703</v>
+        <v>1.026590356590493</v>
       </c>
       <c r="E9">
-        <v>1.046934631300531</v>
+        <v>1.01441163016319</v>
       </c>
       <c r="F9">
-        <v>1.061471607575361</v>
+        <v>1.026556508567318</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044814183154003</v>
+        <v>1.046500391489324</v>
       </c>
       <c r="J9">
-        <v>1.055463559655932</v>
+        <v>1.034192978102765</v>
       </c>
       <c r="K9">
-        <v>1.056573204029831</v>
+        <v>1.039266267408065</v>
       </c>
       <c r="L9">
-        <v>1.050061946698135</v>
+        <v>1.027275137251782</v>
       </c>
       <c r="M9">
-        <v>1.0645532727909</v>
+        <v>1.039232932905262</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.047958644433357</v>
+        <v>0.9994344202129982</v>
       </c>
       <c r="D10">
-        <v>1.052059478447176</v>
+        <v>1.019317038644252</v>
       </c>
       <c r="E10">
-        <v>1.045401297752923</v>
+        <v>1.006666962866765</v>
       </c>
       <c r="F10">
-        <v>1.059763067540757</v>
+        <v>1.017975187215042</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044287506706357</v>
+        <v>1.043175404227768</v>
       </c>
       <c r="J10">
-        <v>1.054209183296155</v>
+        <v>1.027670495799527</v>
       </c>
       <c r="K10">
-        <v>1.055448662871111</v>
+        <v>1.033346062430113</v>
       </c>
       <c r="L10">
-        <v>1.048813639485408</v>
+        <v>1.020916877626544</v>
       </c>
       <c r="M10">
-        <v>1.063125857977395</v>
+        <v>1.032027305315605</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047183317225147</v>
+        <v>0.9951724195769742</v>
       </c>
       <c r="D11">
-        <v>1.051450142685977</v>
+        <v>1.016067224427724</v>
       </c>
       <c r="E11">
-        <v>1.044737659174127</v>
+        <v>1.00320878127935</v>
       </c>
       <c r="F11">
-        <v>1.059023699520276</v>
+        <v>1.014143223336625</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0440579645218</v>
+        <v>1.041676320507738</v>
       </c>
       <c r="J11">
-        <v>1.053665309286691</v>
+        <v>1.024747419801495</v>
       </c>
       <c r="K11">
-        <v>1.054960899367457</v>
+        <v>1.030692366818474</v>
       </c>
       <c r="L11">
-        <v>1.048272670169405</v>
+        <v>1.018070437329794</v>
       </c>
       <c r="M11">
-        <v>1.062507497647956</v>
+        <v>1.028803258670828</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.046895314133785</v>
+        <v>0.993566717666274</v>
       </c>
       <c r="D12">
-        <v>1.051223799529</v>
+        <v>1.014844030627468</v>
       </c>
       <c r="E12">
-        <v>1.044491199536418</v>
+        <v>1.001907479412768</v>
       </c>
       <c r="F12">
-        <v>1.058749130852438</v>
+        <v>1.012701225476134</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043972478499233</v>
+        <v>1.041110073430386</v>
       </c>
       <c r="J12">
-        <v>1.05346318126612</v>
+        <v>1.02364586332742</v>
       </c>
       <c r="K12">
-        <v>1.054779597089526</v>
+        <v>1.029692262965774</v>
       </c>
       <c r="L12">
-        <v>1.0480716627855</v>
+        <v>1.016998226143824</v>
       </c>
       <c r="M12">
-        <v>1.062277768311133</v>
+        <v>1.027589069506422</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.046957092343661</v>
+        <v>0.9939121942850803</v>
       </c>
       <c r="D13">
-        <v>1.051272351305911</v>
+        <v>1.015107153664161</v>
       </c>
       <c r="E13">
-        <v>1.044544063925031</v>
+        <v>1.00218739026416</v>
       </c>
       <c r="F13">
-        <v>1.058808023809906</v>
+        <v>1.01301140229194</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043990825675208</v>
+        <v>1.041231970255759</v>
       </c>
       <c r="J13">
-        <v>1.053506543356445</v>
+        <v>1.023882881954224</v>
       </c>
       <c r="K13">
-        <v>1.054818492717485</v>
+        <v>1.029907454891041</v>
       </c>
       <c r="L13">
-        <v>1.048114782606151</v>
+        <v>1.01722890947194</v>
       </c>
       <c r="M13">
-        <v>1.06232704798022</v>
+        <v>1.027850287248586</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047159511054151</v>
+        <v>0.9950401619067165</v>
       </c>
       <c r="D14">
-        <v>1.051431433270364</v>
+        <v>1.015966448609452</v>
       </c>
       <c r="E14">
-        <v>1.044717285823031</v>
+        <v>1.003101563956529</v>
       </c>
       <c r="F14">
-        <v>1.05900100225588</v>
+        <v>1.014024414693981</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044050902788451</v>
+        <v>1.041629709605113</v>
       </c>
       <c r="J14">
-        <v>1.053648603549077</v>
+        <v>1.024656692840067</v>
       </c>
       <c r="K14">
-        <v>1.054945915421626</v>
+        <v>1.030609996926121</v>
       </c>
       <c r="L14">
-        <v>1.048256056212459</v>
+        <v>1.017982117819014</v>
       </c>
       <c r="M14">
-        <v>1.062488509025822</v>
+        <v>1.02870323894824</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047284226261455</v>
+        <v>0.9957320981611318</v>
       </c>
       <c r="D15">
-        <v>1.05152944775067</v>
+        <v>1.016493728605053</v>
       </c>
       <c r="E15">
-        <v>1.044824019535209</v>
+        <v>1.003662560134397</v>
       </c>
       <c r="F15">
-        <v>1.059119911307669</v>
+        <v>1.014646058622548</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044087888611214</v>
+        <v>1.041873505755468</v>
       </c>
       <c r="J15">
-        <v>1.053736117057877</v>
+        <v>1.025131340230752</v>
       </c>
       <c r="K15">
-        <v>1.05502440814964</v>
+        <v>1.031040920995548</v>
       </c>
       <c r="L15">
-        <v>1.048343090609588</v>
+        <v>1.018444189381602</v>
       </c>
       <c r="M15">
-        <v>1.062587984816467</v>
+        <v>1.029226534494045</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048010098739865</v>
+        <v>0.9997141891356686</v>
       </c>
       <c r="D16">
-        <v>1.052099916853852</v>
+        <v>1.019530520558154</v>
       </c>
       <c r="E16">
-        <v>1.04544534763908</v>
+        <v>1.006894177673115</v>
       </c>
       <c r="F16">
-        <v>1.059812146191882</v>
+        <v>1.018226955638727</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044302709292409</v>
+        <v>1.043273601087488</v>
       </c>
       <c r="J16">
-        <v>1.054245263176582</v>
+        <v>1.027862329749701</v>
       </c>
       <c r="K16">
-        <v>1.055481016600855</v>
+        <v>1.033520207985596</v>
       </c>
       <c r="L16">
-        <v>1.048849532432127</v>
+        <v>1.021103746034991</v>
       </c>
       <c r="M16">
-        <v>1.063166890553527</v>
+        <v>1.032238999629993</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048465399518386</v>
+        <v>1.002173396382587</v>
       </c>
       <c r="D17">
-        <v>1.052457741944658</v>
+        <v>1.021407868297057</v>
       </c>
       <c r="E17">
-        <v>1.045835171611753</v>
+        <v>1.008892543955177</v>
       </c>
       <c r="F17">
-        <v>1.060246484421029</v>
+        <v>1.020441248433045</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044437062083937</v>
+        <v>1.044135613321537</v>
       </c>
       <c r="J17">
-        <v>1.05456444361427</v>
+        <v>1.029548309620671</v>
       </c>
       <c r="K17">
-        <v>1.055767212492498</v>
+        <v>1.035050670593482</v>
       </c>
       <c r="L17">
-        <v>1.049167090712891</v>
+        <v>1.022746430705922</v>
       </c>
       <c r="M17">
-        <v>1.06352994731451</v>
+        <v>1.034100116173654</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04873096208793</v>
+        <v>1.0035943476335</v>
       </c>
       <c r="D18">
-        <v>1.05266644995369</v>
+        <v>1.022493275067429</v>
       </c>
       <c r="E18">
-        <v>1.046062578800714</v>
+        <v>1.010048131828448</v>
       </c>
       <c r="F18">
-        <v>1.060499869169617</v>
+        <v>1.021721681690947</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044515284262995</v>
+        <v>1.044632721187144</v>
       </c>
       <c r="J18">
-        <v>1.054750546667457</v>
+        <v>1.030522249202936</v>
       </c>
       <c r="K18">
-        <v>1.055934065689892</v>
+        <v>1.035934721047859</v>
       </c>
       <c r="L18">
-        <v>1.049352274279381</v>
+        <v>1.0236956465687</v>
       </c>
       <c r="M18">
-        <v>1.063741685181041</v>
+        <v>1.035175716236979</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.048821510975428</v>
+        <v>1.004076614464295</v>
       </c>
       <c r="D19">
-        <v>1.052737613102604</v>
+        <v>1.022861767702289</v>
       </c>
       <c r="E19">
-        <v>1.046140123788879</v>
+        <v>1.01044048738959</v>
       </c>
       <c r="F19">
-        <v>1.060586274070177</v>
+        <v>1.022156423276987</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044541931668638</v>
+        <v>1.044801271746705</v>
       </c>
       <c r="J19">
-        <v>1.054813991233132</v>
+        <v>1.030852759756129</v>
       </c>
       <c r="K19">
-        <v>1.055990944761046</v>
+        <v>1.036234718115268</v>
       </c>
       <c r="L19">
-        <v>1.049415409846939</v>
+        <v>1.024017815392393</v>
       </c>
       <c r="M19">
-        <v>1.063813877762383</v>
+        <v>1.035540808466857</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04841655075445</v>
+        <v>1.00191094947743</v>
       </c>
       <c r="D20">
-        <v>1.052419351251152</v>
+        <v>1.021207448348565</v>
       </c>
       <c r="E20">
-        <v>1.045793344145191</v>
+        <v>1.008679182439657</v>
       </c>
       <c r="F20">
-        <v>1.060199879637562</v>
+        <v>1.020204834806532</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044422662149165</v>
+        <v>1.044043719546205</v>
       </c>
       <c r="J20">
-        <v>1.054530205767277</v>
+        <v>1.029368405454763</v>
       </c>
       <c r="K20">
-        <v>1.055736514662844</v>
+        <v>1.03488736628243</v>
       </c>
       <c r="L20">
-        <v>1.049133024146375</v>
+        <v>1.022571116582259</v>
       </c>
       <c r="M20">
-        <v>1.063490997557358</v>
+        <v>1.033901473013328</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.0470999041336</v>
+        <v>0.9947086400988246</v>
       </c>
       <c r="D21">
-        <v>1.051384587840983</v>
+        <v>1.015713859535604</v>
       </c>
       <c r="E21">
-        <v>1.044666275045923</v>
+        <v>1.002832834682044</v>
       </c>
       <c r="F21">
-        <v>1.058944173110197</v>
+        <v>1.013726632219843</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044033217757394</v>
+        <v>1.041512849617036</v>
       </c>
       <c r="J21">
-        <v>1.053606773377671</v>
+        <v>1.024429268941124</v>
       </c>
       <c r="K21">
-        <v>1.054908396071458</v>
+        <v>1.030403520612331</v>
       </c>
       <c r="L21">
-        <v>1.048214456518829</v>
+        <v>1.017760736160644</v>
       </c>
       <c r="M21">
-        <v>1.062440963958439</v>
+        <v>1.028452533736713</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.046272005716383</v>
+        <v>0.9900486438306085</v>
       </c>
       <c r="D22">
-        <v>1.050733940333858</v>
+        <v>1.012166306558011</v>
       </c>
       <c r="E22">
-        <v>1.043957903672615</v>
+        <v>0.9990593343565629</v>
       </c>
       <c r="F22">
-        <v>1.058155039381531</v>
+        <v>1.009545045951921</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043787063419849</v>
+        <v>1.03986680258092</v>
       </c>
       <c r="J22">
-        <v>1.053025543806107</v>
+        <v>1.02123191206587</v>
       </c>
       <c r="K22">
-        <v>1.054387000441574</v>
+        <v>1.027500538973923</v>
       </c>
       <c r="L22">
-        <v>1.04763652696841</v>
+        <v>1.014649449077563</v>
       </c>
       <c r="M22">
-        <v>1.061780518328757</v>
+        <v>1.024929755833961</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.046710897508291</v>
+        <v>0.9925320009326739</v>
       </c>
       <c r="D23">
-        <v>1.051078865829261</v>
+        <v>1.014056146383905</v>
       </c>
       <c r="E23">
-        <v>1.044333400114325</v>
+        <v>1.001069371851052</v>
       </c>
       <c r="F23">
-        <v>1.058573338440847</v>
+        <v>1.011772488344323</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043917677363586</v>
+        <v>1.040744777233482</v>
       </c>
       <c r="J23">
-        <v>1.05333372464584</v>
+        <v>1.022935945736621</v>
       </c>
       <c r="K23">
-        <v>1.0546634709922</v>
+        <v>1.029047712805869</v>
       </c>
       <c r="L23">
-        <v>1.047942935483396</v>
+        <v>1.016307352926431</v>
       </c>
       <c r="M23">
-        <v>1.062130656767331</v>
+        <v>1.026806786966587</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048438623428382</v>
+        <v>1.002029579431906</v>
       </c>
       <c r="D24">
-        <v>1.052436698369245</v>
+        <v>1.021298039147941</v>
       </c>
       <c r="E24">
-        <v>1.045812244085622</v>
+        <v>1.008775622228633</v>
       </c>
       <c r="F24">
-        <v>1.060220938201198</v>
+        <v>1.020311694244854</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044429169303208</v>
+        <v>1.044085259932065</v>
       </c>
       <c r="J24">
-        <v>1.054545676591052</v>
+        <v>1.0294497255797</v>
       </c>
       <c r="K24">
-        <v>1.055750385937734</v>
+        <v>1.034961183116484</v>
       </c>
       <c r="L24">
-        <v>1.049148417493436</v>
+        <v>1.02265036103162</v>
       </c>
       <c r="M24">
-        <v>1.063508597359207</v>
+        <v>1.033991262004599</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.050443296726024</v>
+        <v>1.012527053172486</v>
       </c>
       <c r="D25">
-        <v>1.054012180401447</v>
+        <v>1.029327344595765</v>
       </c>
       <c r="E25">
-        <v>1.047529517705381</v>
+        <v>1.017328021018109</v>
       </c>
       <c r="F25">
-        <v>1.062134559941986</v>
+        <v>1.029787870063536</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045017097837979</v>
+        <v>1.047739963858435</v>
       </c>
       <c r="J25">
-        <v>1.055949355611567</v>
+        <v>1.0366400635262</v>
       </c>
       <c r="K25">
-        <v>1.057008552853122</v>
+        <v>1.041486832185588</v>
       </c>
       <c r="L25">
-        <v>1.050545635040738</v>
+        <v>1.029663167820257</v>
       </c>
       <c r="M25">
-        <v>1.065106563847096</v>
+        <v>1.041940719321803</v>
       </c>
     </row>
   </sheetData>
